--- a/hw2/best_oper_result/replacement-2.xlsx
+++ b/hw2/best_oper_result/replacement-2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacchus01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacchus01\Desktop\ga-2015-1\hw2\best_oper_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -307,11 +307,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="401130656"/>
-        <c:axId val="515350304"/>
+        <c:axId val="165941008"/>
+        <c:axId val="165945488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="401130656"/>
+        <c:axId val="165941008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -354,7 +354,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515350304"/>
+        <c:crossAx val="165945488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -362,7 +362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515350304"/>
+        <c:axId val="165945488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,7 +413,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401130656"/>
+        <c:crossAx val="165941008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -663,11 +663,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="34158896"/>
-        <c:axId val="34159456"/>
+        <c:axId val="165947728"/>
+        <c:axId val="165948288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="34158896"/>
+        <c:axId val="165947728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -710,7 +710,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34159456"/>
+        <c:crossAx val="165948288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -718,7 +718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34159456"/>
+        <c:axId val="165948288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +769,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34158896"/>
+        <c:crossAx val="165947728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2236,10 +2236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3096,6 +3096,136 @@
         <v>54.126467122452119</v>
       </c>
     </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>SUM(B22:K22)</f>
+        <v>19625.478199999998</v>
+      </c>
+      <c r="B26">
+        <f>$A$26*1000/B22</f>
+        <v>45690.742093860827</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:K26" si="4">$A$26*1000/C22</f>
+        <v>45235.557301163746</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>46418.249815632393</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>45235.557301163746</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>3545.6347208998559</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
+        <v>46166.792735205847</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>3537.7304313294139</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>46163.285146310525</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>46160.60323205727</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>3537.7304313294139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f>INT(B26)</f>
+        <v>45690</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:K27" si="5">INT(C26)</f>
+        <v>45235</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>46418</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>45235</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>3545</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>46166</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>3537</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="5"/>
+        <v>46163</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>46160</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f>B27</f>
+        <v>45690</v>
+      </c>
+      <c r="C28">
+        <f>B28+C27</f>
+        <v>90925</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:K28" si="6">C28+D27</f>
+        <v>137343</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="6"/>
+        <v>182578</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="6"/>
+        <v>186123</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>232289</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>235826</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="6"/>
+        <v>281989</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>328149</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>331686</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hw2/best_oper_result/replacement-2.xlsx
+++ b/hw2/best_oper_result/replacement-2.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bacchus01\Desktop\ga-2015-1\hw2\best_oper_result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,29 +19,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>average</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Average</t>
   </si>
   <si>
-    <t>min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Min</t>
   </si>
   <si>
-    <t>median</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Median</t>
   </si>
   <si>
-    <t>stdev</t>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>Replacement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +54,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -85,9 +88,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -108,17 +114,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -126,7 +122,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -139,7 +134,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -171,13 +165,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -202,7 +190,6 @@
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -297,29 +284,21 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="165941008"/>
-        <c:axId val="165945488"/>
+        <c:axId val="73334144"/>
+        <c:axId val="73208960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165941008"/>
+        <c:axId val="73334144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -354,19 +333,17 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165945488"/>
+        <c:crossAx val="73208960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165945488"/>
+        <c:axId val="73208960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -384,7 +361,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -413,7 +389,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165941008"/>
+        <c:crossAx val="73334144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -427,7 +403,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -456,7 +431,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -464,17 +439,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -482,7 +447,6 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -495,7 +459,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -527,13 +490,7 @@
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
@@ -558,7 +515,6 @@
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -653,29 +609,21 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="165947728"/>
-        <c:axId val="165948288"/>
+        <c:axId val="73241344"/>
+        <c:axId val="73242880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165947728"/>
+        <c:axId val="73241344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -710,19 +658,17 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165948288"/>
+        <c:crossAx val="73242880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165948288"/>
+        <c:axId val="73242880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -740,7 +686,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -769,7 +714,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="165947728"/>
+        <c:crossAx val="73241344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -783,7 +728,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -812,1096 +756,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2016,7 +874,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2051,7 +909,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2228,23 +1086,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="A21" sqref="A21:K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="11" width="7.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11">
       <c r="B1">
         <v>430.988</v>
       </c>
@@ -2276,7 +1138,7 @@
         <v>5580.7</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11">
       <c r="B2">
         <v>430.23</v>
       </c>
@@ -2308,7 +1170,7 @@
         <v>5458.93</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11">
       <c r="B3">
         <v>429.14600000000002</v>
       </c>
@@ -2340,7 +1202,7 @@
         <v>5603.45</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11">
       <c r="B4">
         <v>431.613</v>
       </c>
@@ -2372,7 +1234,7 @@
         <v>5507.39</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11">
       <c r="B5">
         <v>428.79</v>
       </c>
@@ -2404,7 +1266,7 @@
         <v>5525.73</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11">
       <c r="B6">
         <v>429.505</v>
       </c>
@@ -2436,7 +1298,7 @@
         <v>5522.66</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11">
       <c r="B7">
         <v>426.85700000000003</v>
       </c>
@@ -2468,7 +1330,7 @@
         <v>5511.96</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11">
       <c r="B8">
         <v>431.31599999999997</v>
       </c>
@@ -2500,7 +1362,7 @@
         <v>5596.13</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11">
       <c r="B9">
         <v>429.43700000000001</v>
       </c>
@@ -2532,7 +1394,7 @@
         <v>5630.09</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11">
       <c r="B10">
         <v>428.61</v>
       </c>
@@ -2564,7 +1426,7 @@
         <v>5538.25</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11">
       <c r="B11">
         <v>430.08100000000002</v>
       </c>
@@ -2596,7 +1458,7 @@
         <v>5510.1</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11">
       <c r="B12">
         <v>426.959</v>
       </c>
@@ -2628,7 +1490,7 @@
         <v>5602.08</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11">
       <c r="B13">
         <v>431.48099999999999</v>
       </c>
@@ -2660,7 +1522,7 @@
         <v>5608.2</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11">
       <c r="B14">
         <v>428.52699999999999</v>
       </c>
@@ -2692,7 +1554,7 @@
         <v>5553.59</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11">
       <c r="B15">
         <v>430.767</v>
       </c>
@@ -2724,7 +1586,7 @@
         <v>5520.02</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11">
       <c r="B16">
         <v>428.142</v>
       </c>
@@ -2756,7 +1618,7 @@
         <v>5537.15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="B17">
         <v>431.20400000000001</v>
       </c>
@@ -2788,7 +1650,7 @@
         <v>5578.92</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="B18">
         <v>428.71699999999998</v>
       </c>
@@ -2820,7 +1682,7 @@
         <v>5599.31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="B19">
         <v>429.01600000000002</v>
       </c>
@@ -2852,7 +1714,7 @@
         <v>5550.46</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="B20">
         <v>429.185</v>
       </c>
@@ -2884,7 +1746,10 @@
         <v>5414.42</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
       <c r="B21">
         <v>0</v>
       </c>
@@ -2916,8 +1781,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22">
@@ -2961,8 +1826,8 @@
         <v>5547.476999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B23">
@@ -3006,8 +1871,8 @@
         <v>5414.42</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B24">
@@ -3051,8 +1916,8 @@
         <v>5544.3549999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B25">
@@ -3096,7 +1961,7 @@
         <v>54.126467122452119</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26">
         <f>SUM(B22:K22)</f>
         <v>19625.478199999998</v>
@@ -3142,7 +2007,7 @@
         <v>3537.7304313294139</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="B27">
         <f>INT(B26)</f>
         <v>45690</v>
@@ -3184,7 +2049,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="B28">
         <f>B27</f>
         <v>45690</v>
@@ -3229,6 +2094,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>